--- a/Gantt_chart.xlsx
+++ b/Gantt_chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k\Desktop\2023 T2\Software Technologies (7810ICT)\2810ICT-7810ICT-2023-Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k\Desktop\2023 T2\Software Technologies (7810ICT)\7810ICT-assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5EA56D-7E78-4EEE-9A06-71870453BD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55268FE3-63B5-4630-99E8-D6D9F103E6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$E1&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$E1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">('Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1)*('Project Planner'!$E1&gt;0))*(('Project Planner'!A$4&lt;(INT('Project Planner'!$E1+'Project Planner'!$F1*'Project Planner'!$G1)))+('Project Planner'!A$4='Project Planner'!$E1))*('Project Planner'!$G1&gt;0)</definedName>
-    <definedName name="period_selected">'Project Planner'!$H$2</definedName>
+    <definedName name="PercentCompleteBeyond">('Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1)*('Project Planner'!$E1&gt;0))*(('Project Planner'!A$4&lt;(INT('Project Planner'!$E1+'Project Planner'!$F1*'Project Planner'!#REF!)))+('Project Planner'!A$4='Project Planner'!$E1))*('Project Planner'!#REF!&gt;0)</definedName>
+    <definedName name="period_selected">'Project Planner'!$G$2</definedName>
     <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>PERIODS</t>
   </si>
@@ -126,9 +126,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Period Highlight:</t>
-  </si>
-  <si>
     <t>PLAN START</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>ACTUAL DURATION</t>
   </si>
   <si>
-    <t>PERCENT COMPLETE</t>
-  </si>
-  <si>
     <t>Actual Start</t>
   </si>
   <si>
@@ -154,29 +148,29 @@
   </si>
   <si>
     <t>Schedule WBS</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Analysis Tasks</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Define required data </t>
   </si>
   <si>
     <t>Design Tasks</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Meeting with team staffs to evaluate </t>
   </si>
   <si>
     <t>Build Tasks</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Test Tasks</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Fix bugs </t>
@@ -186,58 +180,62 @@
   </si>
   <si>
     <t>Planning tasks</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Design GUI </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write code for displaying accident type</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write code for displaying the number of accidents in each hour</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write code for displaying the all info about accidents</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write code for displaying the impact of alcohol in accidnets</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write code for displaying the accident frquency in different locations</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Define software requirements</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Define use case diagram</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Design Data Structure</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Victoria State Accident Data Set</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Data set analysis software development project</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perform unit tests</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write code for calculate statistics</t>
+  </si>
+  <si>
+    <t>Write code for column values for chart</t>
+  </si>
+  <si>
+    <t>Write code for generate chart</t>
+  </si>
+  <si>
+    <t>Write code for open and load CSV file</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write code for update statistics</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="184" formatCode="dd\ &quot;/&quot;\ mm"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -277,12 +275,6 @@
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="7"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -407,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -466,15 +458,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="0"/>
       </left>
@@ -506,14 +489,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -522,44 +505,44 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,16 +552,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="3">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -587,13 +564,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="1" xfId="13">
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="1" xfId="13">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
@@ -611,22 +588,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -638,53 +612,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -708,7 +682,7 @@
     <cellStyle name="제목 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -755,71 +729,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -972,13 +881,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>69636</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>51229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>205707</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>336978</xdr:rowOff>
@@ -1036,13 +945,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>205157</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>205157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>117232</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>7330</xdr:rowOff>
@@ -1091,13 +1000,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>131883</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1146,13 +1055,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>211015</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>189035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>123090</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>379535</xdr:rowOff>
@@ -1201,13 +1110,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>197826</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>183173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>109902</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>373673</xdr:rowOff>
@@ -1256,14 +1165,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>211015</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12228</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>203688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123090</xdr:colOff>
+      <xdr:colOff>131368</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>13188</xdr:rowOff>
     </xdr:to>
@@ -1280,8 +1189,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9908197" y="6164141"/>
-          <a:ext cx="190500" cy="124556"/>
+          <a:off x="10346374" y="6550716"/>
+          <a:ext cx="190500" cy="119140"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1312,15 +1221,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>7328</xdr:colOff>
+      <xdr:colOff>206110</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>256442</xdr:rowOff>
+      <xdr:rowOff>226179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>131884</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>118185</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>377942</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1335,8 +1244,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10341952" y="6597895"/>
-          <a:ext cx="190500" cy="124556"/>
+          <a:off x="11036352" y="6929264"/>
+          <a:ext cx="151763" cy="124556"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1366,14 +1275,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>7326</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>197827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>131882</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>132839</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:to>
@@ -1390,7 +1299,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10766912" y="6978895"/>
+          <a:off x="11669080" y="7323261"/>
           <a:ext cx="190500" cy="124556"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1421,16 +1330,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>211015</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5861</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>211015</xdr:rowOff>
+      <xdr:rowOff>189034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>123090</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>125001</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>401515</xdr:rowOff>
+      <xdr:rowOff>384949</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1445,8 +1354,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11183081" y="7373083"/>
-          <a:ext cx="190500" cy="124556"/>
+          <a:off x="12298685" y="7700884"/>
+          <a:ext cx="195915" cy="119140"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1476,68 +1385,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>202222</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>216876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>114297</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>4395</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="직선 화살표 연결선 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EE38B9-671A-4C73-BF46-4ED9D1D83EF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11811731" y="8602540"/>
-          <a:ext cx="190500" cy="124556"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3846"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>5862</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>232996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>109904</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>366346</xdr:rowOff>
@@ -1586,13 +1440,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>11724</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>246184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>115766</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>379534</xdr:rowOff>
@@ -1641,16 +1495,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>2931</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>18018</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>310661</xdr:rowOff>
+      <xdr:rowOff>217997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>106973</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>117234</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:rowOff>3</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1665,12 +1519,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11440258" y="8047892"/>
-          <a:ext cx="514350" cy="104042"/>
+          <a:off x="12749623" y="8331488"/>
+          <a:ext cx="573314" cy="99216"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 143"/>
+            <a:gd name="adj1" fmla="val 158"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1696,13 +1550,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>154801</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>80364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>134470</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>366113</xdr:rowOff>
@@ -1760,13 +1614,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>172732</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>64676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>350425</xdr:rowOff>
@@ -1824,13 +1678,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>157044</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>93811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>136713</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>379560</xdr:rowOff>
@@ -1888,13 +1742,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>152562</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>55711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>132230</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>341460</xdr:rowOff>
@@ -1952,13 +1806,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>13609</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>62434</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>206190</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>348183</xdr:rowOff>
@@ -2016,13 +1870,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>143597</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>69157</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>123266</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>354906</xdr:rowOff>
@@ -2081,13 +1935,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>161526</xdr:colOff>
+      <xdr:colOff>169804</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>53469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>141195</xdr:colOff>
+      <xdr:colOff>149472</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>339218</xdr:rowOff>
     </xdr:to>
@@ -2104,8 +1958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10112350" y="5992587"/>
-          <a:ext cx="4450816" cy="285749"/>
+          <a:off x="10539630" y="6364817"/>
+          <a:ext cx="4328038" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2144,16 +1998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190662</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>176963</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>82605</xdr:rowOff>
+      <xdr:rowOff>52342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>170331</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>156633</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>368354</xdr:rowOff>
+      <xdr:rowOff>338091</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2168,8 +2022,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10567309" y="6402723"/>
-          <a:ext cx="4450816" cy="285749"/>
+          <a:off x="11233290" y="6741823"/>
+          <a:ext cx="4441766" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2208,14 +2062,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>152561</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>153518</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>44506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>132230</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>133186</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>330255</xdr:rowOff>
     </xdr:to>
@@ -2232,8 +2086,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10955032" y="6801653"/>
-          <a:ext cx="4450816" cy="285749"/>
+          <a:off x="11847287" y="7136968"/>
+          <a:ext cx="4441764" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2272,16 +2126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>114462</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>116373</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>62436</xdr:rowOff>
+      <xdr:rowOff>40455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>94131</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>96042</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>348185</xdr:rowOff>
+      <xdr:rowOff>326204</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2296,8 +2150,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11342756" y="7200583"/>
-          <a:ext cx="4450816" cy="285749"/>
+          <a:off x="12447585" y="7513917"/>
+          <a:ext cx="4441765" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2336,16 +2190,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>98773</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>91879</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>91571</xdr:rowOff>
+      <xdr:rowOff>79502</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>71548</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>377320</xdr:rowOff>
+      <xdr:rowOff>365251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2360,8 +2214,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11752891" y="7633130"/>
-          <a:ext cx="4450816" cy="285749"/>
+          <a:off x="13060533" y="7955944"/>
+          <a:ext cx="4441765" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,14 +2254,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>183939</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>59382</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>64678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>163608</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>39051</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>350427</xdr:rowOff>
     </xdr:to>
@@ -2424,8 +2278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12050968" y="8424266"/>
-          <a:ext cx="4450816" cy="285749"/>
+          <a:off x="13240517" y="8732428"/>
+          <a:ext cx="4441765" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2455,7 +2309,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>Perform acceptance</a:t>
+            <a:t>Perform units</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
@@ -2469,16 +2323,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>22574</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>60195</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>74849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>2243</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>345944</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>360598</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2493,8 +2347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12315427" y="8823195"/>
-          <a:ext cx="4450816" cy="285749"/>
+          <a:off x="13841151" y="9548561"/>
+          <a:ext cx="4441765" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2533,13 +2387,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4527</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>227294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>114669</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>360644</xdr:rowOff>
@@ -2588,16 +2442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>149087</xdr:rowOff>
+      <xdr:rowOff>149086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>202406</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>240197</xdr:rowOff>
+      <xdr:rowOff>244077</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2612,8 +2466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620000" y="1880152"/>
-          <a:ext cx="4530587" cy="91110"/>
+          <a:off x="7890221" y="1887399"/>
+          <a:ext cx="5819826" cy="94991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2654,14 +2508,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>64277</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>37063</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>65359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>33131</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>5917</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>351108</xdr:rowOff>
     </xdr:to>
@@ -2678,8 +2532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12231429" y="1796424"/>
-          <a:ext cx="3074832" cy="285749"/>
+          <a:off x="13644206" y="1807073"/>
+          <a:ext cx="3030461" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2718,13 +2572,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>2</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>251114</xdr:rowOff>
@@ -2784,13 +2638,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>5862</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>156860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>233795</xdr:rowOff>
@@ -2850,13 +2704,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1733</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>140740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>203488</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>229466</xdr:rowOff>
@@ -2916,16 +2770,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1125</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>165678</xdr:rowOff>
+      <xdr:rowOff>165677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>242454</xdr:rowOff>
+      <xdr:rowOff>249114</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2940,8 +2794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9478500" y="6101485"/>
-          <a:ext cx="2077057" cy="76776"/>
+          <a:off x="9782567" y="6093158"/>
+          <a:ext cx="3193414" cy="83437"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2982,16 +2836,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>13189</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>207818</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>233796</xdr:rowOff>
+      <xdr:rowOff>241788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3006,8 +2860,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11568746" y="8504157"/>
-          <a:ext cx="610265" cy="81332"/>
+          <a:off x="12974516" y="8439214"/>
+          <a:ext cx="851388" cy="89324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3048,13 +2902,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>14167</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>54591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>150238</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>340340</xdr:rowOff>
@@ -3112,13 +2966,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>42742</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>54591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>178813</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>340340</xdr:rowOff>
@@ -3176,13 +3030,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>33217</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>35541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>169288</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>321290</xdr:rowOff>
@@ -3240,16 +3094,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>42742</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>196608</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>64116</xdr:rowOff>
+      <xdr:rowOff>93424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>178813</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>120199</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>349865</xdr:rowOff>
+      <xdr:rowOff>379173</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3264,8 +3118,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11634667" y="5998191"/>
-          <a:ext cx="1183821" cy="285749"/>
+          <a:off x="13165262" y="6020905"/>
+          <a:ext cx="1198475" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3304,16 +3158,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>42742</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>13435</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>73641</xdr:rowOff>
+      <xdr:rowOff>66314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>178813</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>149506</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>359390</xdr:rowOff>
+      <xdr:rowOff>352063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3328,8 +3182,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12263317" y="8427066"/>
-          <a:ext cx="1183821" cy="285749"/>
+          <a:off x="13832012" y="8353064"/>
+          <a:ext cx="1198475" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3364,6 +3218,185 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>211783</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>77866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>191451</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>363615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D875399B-423A-4E63-B1AF-4A49C9D9A3C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13605398" y="9148597"/>
+          <a:ext cx="4441765" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>Perform acceptance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t> tests</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>202224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>116209</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>398139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAEF742-F78B-4BB2-93C3-F8B38BF250B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13139816" y="8908362"/>
+          <a:ext cx="195915" cy="119140"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3846"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>2932</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>215413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>122072</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8347</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="직선 화살표 연결선 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85804574-7B35-495E-B848-4A45AFEE04E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13358159" y="9324532"/>
+          <a:ext cx="195915" cy="119140"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3846"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3600,10 +3633,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO24"/>
+  <dimension ref="B1:BN25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AR16" sqref="AR16"/>
+      <selection activeCell="BX15" sqref="BX15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3612,665 +3645,667 @@
     <col min="2" max="2" width="42.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="1"/>
-    <col min="42" max="42" width="2.75" customWidth="1"/>
+    <col min="7" max="26" width="2.75" style="1"/>
+    <col min="41" max="41" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="2:66" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="2:66" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="17"/>
+      <c r="AO2" s="17"/>
+    </row>
+    <row r="3" spans="2:66" s="6" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="2:66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>6</v>
+      </c>
+      <c r="M4" s="3">
+        <v>7</v>
+      </c>
+      <c r="N4" s="3">
+        <v>8</v>
+      </c>
+      <c r="O4" s="3">
+        <v>9</v>
+      </c>
+      <c r="P4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>11</v>
+      </c>
+      <c r="R4" s="3">
+        <v>12</v>
+      </c>
+      <c r="S4" s="3">
+        <v>13</v>
+      </c>
+      <c r="T4" s="3">
+        <v>14</v>
+      </c>
+      <c r="U4" s="3">
+        <v>15</v>
+      </c>
+      <c r="V4" s="3">
+        <v>16</v>
+      </c>
+      <c r="W4" s="3">
+        <v>17</v>
+      </c>
+      <c r="X4" s="3">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>21</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>24</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>27</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>31</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>32</v>
+      </c>
+      <c r="AM4" s="3">
         <v>33</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="AN4" s="3">
+        <v>34</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>35</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>36</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>37</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>38</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>39</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>40</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>41</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>42</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>43</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>44</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>45</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>46</v>
+      </c>
+      <c r="BA4" s="3">
+        <v>47</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>48</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>49</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>50</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>51</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>52</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>53</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>54</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>55</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>56</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>57</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>58</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>59</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="5" spans="2:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="2:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="2:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="38">
+        <v>45176</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="5" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="2:66" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="38">
+        <v>45177</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="18">
+        <v>3</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="38">
+        <v>45178</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="18">
+        <v>4</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="38">
+        <v>45179</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:66" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="2:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="21">
         <v>5</v>
       </c>
-      <c r="H2" s="11">
+      <c r="D13" s="18">
+        <v>3</v>
+      </c>
+      <c r="E13" s="38">
+        <v>45180</v>
+      </c>
+      <c r="F13" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="21">
+        <v>8</v>
+      </c>
+      <c r="D14" s="18">
         <v>1</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="36" t="s">
+      <c r="E14" s="38">
+        <v>45183</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="18">
+        <v>9</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="38">
+        <v>45184</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="21">
+        <v>10</v>
+      </c>
+      <c r="D17" s="18">
+        <v>3</v>
+      </c>
+      <c r="E17" s="38">
+        <v>45185</v>
+      </c>
+      <c r="F17" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="18">
+        <v>13</v>
+      </c>
+      <c r="D18" s="18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="38">
+        <v>45188</v>
+      </c>
+      <c r="F18" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="18">
+        <v>16</v>
+      </c>
+      <c r="D19" s="18">
+        <v>3</v>
+      </c>
+      <c r="E19" s="38">
+        <v>45191</v>
+      </c>
+      <c r="F19" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="18">
+        <v>19</v>
+      </c>
+      <c r="D20" s="18">
+        <v>3</v>
+      </c>
+      <c r="E20" s="38">
+        <v>45194</v>
+      </c>
+      <c r="F20" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="18">
+        <v>22</v>
+      </c>
+      <c r="D21" s="18">
+        <v>3</v>
+      </c>
+      <c r="E21" s="38">
+        <v>45197</v>
+      </c>
+      <c r="F21" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="2:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="18">
+        <v>25</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="38">
+        <v>45200</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="18">
+        <v>26</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="38">
+        <v>45201</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="18">
+        <v>27</v>
+      </c>
+      <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-    </row>
-    <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-    </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="E25" s="38">
+        <v>45202</v>
+      </c>
+      <c r="F25" s="18">
         <v>2</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>4</v>
-      </c>
-      <c r="L4" s="3">
-        <v>5</v>
-      </c>
-      <c r="M4" s="3">
-        <v>6</v>
-      </c>
-      <c r="N4" s="3">
-        <v>7</v>
-      </c>
-      <c r="O4" s="3">
-        <v>8</v>
-      </c>
-      <c r="P4" s="3">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>10</v>
-      </c>
-      <c r="R4" s="3">
-        <v>11</v>
-      </c>
-      <c r="S4" s="3">
-        <v>12</v>
-      </c>
-      <c r="T4" s="3">
-        <v>13</v>
-      </c>
-      <c r="U4" s="3">
-        <v>14</v>
-      </c>
-      <c r="V4" s="3">
-        <v>15</v>
-      </c>
-      <c r="W4" s="3">
-        <v>16</v>
-      </c>
-      <c r="X4" s="3">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>19</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>22</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>23</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>24</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>25</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>26</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>27</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>28</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>29</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>31</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>33</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>34</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>35</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>37</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>38</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>39</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>40</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>41</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>42</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>43</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>44</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>45</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>46</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>47</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>48</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>49</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>50</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>51</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>52</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>53</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>54</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>55</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>56</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>57</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>58</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>59</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" spans="2:67" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="21">
-        <v>2</v>
-      </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="21">
-        <v>3</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="21">
-        <v>4</v>
-      </c>
-      <c r="D11" s="21">
-        <v>1</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="24">
-        <v>5</v>
-      </c>
-      <c r="D13" s="21">
-        <v>3</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="24">
-        <v>8</v>
-      </c>
-      <c r="D14" s="21">
-        <v>1</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="21">
-        <v>9</v>
-      </c>
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="24">
-        <v>10</v>
-      </c>
-      <c r="D17" s="21">
-        <v>2</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="21">
-        <v>12</v>
-      </c>
-      <c r="D18" s="21">
-        <v>2</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="21">
-        <v>14</v>
-      </c>
-      <c r="D19" s="21">
-        <v>2</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="21">
-        <v>16</v>
-      </c>
-      <c r="D20" s="21">
-        <v>2</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="21">
-        <v>18</v>
-      </c>
-      <c r="D21" s="21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="2:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="21">
-        <v>20</v>
-      </c>
-      <c r="D23" s="21">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="21">
-        <v>21</v>
-      </c>
-      <c r="D24" s="21">
-        <v>2</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="20">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
+  <mergeCells count="16">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="16" priority="24">
-      <formula>H$4=period_selected</formula>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <conditionalFormatting sqref="G4:BN4">
+    <cfRule type="expression" dxfId="11" priority="24">
+      <formula>G$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BO18 H20:BO24 H19:Y19 AB19:BO19">
-    <cfRule type="expression" dxfId="15" priority="1">
+  <conditionalFormatting sqref="G5:BN18 G19:X19 Z19:BN19 G20:BN25">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>H$4=period_selected</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:BN18 G19:X19 AA19:BN19 G20:BN25">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>G$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA19">
-    <cfRule type="expression" dxfId="7" priority="33">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="34">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="35">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="36">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37">
-      <formula>Plan</formula>
-    </cfRule>
+  <conditionalFormatting sqref="Z19">
     <cfRule type="expression" dxfId="2" priority="38">
-      <formula>Z$4=period_selected</formula>
+      <formula>Y$4=period_selected</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="39">
       <formula>MOD(COLUMN(),2)</formula>
@@ -4279,23 +4314,22 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="I2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="O2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="T2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Y2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AG2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="G3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
